--- a/sit-wt-runtime/testscript/ExcelTestScript.xlsx
+++ b/sit-wt-runtime/testscript/ExcelTestScript.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\eclipse\workspace\sitoolkit2\sit-wt-all\sit-wt-runtime\testscript\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="TestScript" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TestScript" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>No.</t>
   </si>
@@ -187,9 +192,6 @@
     <t>switchWindow</t>
   </si>
   <si>
-    <t>terms</t>
-  </si>
-  <si>
     <t>閉じるリンク</t>
   </si>
   <si>
@@ -199,9 +201,6 @@
     <t>親ウィンドウ</t>
   </si>
   <si>
-    <t>_parent</t>
-  </si>
-  <si>
     <t>確定ボタン</t>
   </si>
   <si>
@@ -218,17 +217,37 @@
   </si>
   <si>
     <t>//*[@id="confirm"]/tbody/tr[1]/td</t>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力ページ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用規約ページ</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キヤク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -237,26 +256,17 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -269,152 +279,389 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double"/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.70232558139535"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1023255813953"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="12.9627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.86046511627907"/>
+    <col min="1" max="1" width="4.7265625"/>
+    <col min="2" max="2" width="25.08984375"/>
+    <col min="3" max="3" width="15.08984375"/>
+    <col min="4" max="4" width="13"/>
+    <col min="5" max="5" width="21.08984375"/>
+    <col min="6" max="10" width="13"/>
+    <col min="11" max="1025" width="9.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,9 +693,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A19" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -473,9 +720,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -500,9 +747,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -525,9 +772,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -548,9 +795,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -577,9 +824,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -598,9 +845,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -627,9 +874,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -656,9 +903,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -685,9 +932,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -712,9 +959,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -729,9 +976,9 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -756,9 +1003,9 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -767,9 +1014,11 @@
       <c r="C14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
@@ -779,13 +1028,13 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>22</v>
@@ -794,7 +1043,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12" t="s">
@@ -806,20 +1055,22 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="E16" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
@@ -829,13 +1080,13 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="17" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>22</v>
@@ -844,7 +1095,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12" t="s">
@@ -858,13 +1109,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>24</v>
@@ -883,22 +1134,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="19" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12" t="s">
@@ -913,12 +1164,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/sit-wt-runtime/testscript/ExcelTestScript.xlsx
+++ b/sit-wt-runtime/testscript/ExcelTestScript.xlsx
@@ -398,23 +398,23 @@
   </sheetPr>
   <dimension ref="A1:J65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.15813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2837209302326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.706976744186"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="13.9953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5488372093023"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.50697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.246511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0232558139535"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.4325581395349"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="15.0232558139535"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.353488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,9 +871,75 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
